--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>860.8484746097322</v>
+        <v>305.5522071246552</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2519998550415039</v>
+        <v>0.1679999828338623</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.66295360775301</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.2160238063541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.661544808322666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630.1400000000106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.71043125710754</v>
+        <v>23.71927412272879</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.76239749718575</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>16.65075183719856</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.24140310821981</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>160.2469999999976</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>151.6450000000004</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>211.368999999999</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>64.27299999999923</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.29499999999661</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>151.6450000000023</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>211.3689999999988</v>
+        <v>130.6</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.645000000002256</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>61.36899999999881</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1231,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,34 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
